--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>真题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,26 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>级数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数理统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,14 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>矩阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>失误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +87,26 @@
   </si>
   <si>
     <t>难题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间曲线积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是空间曲线积分公式记错了；昨天熬夜今天教室有人鼠标敲敲敲状态不是很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余炳森5套-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +129,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,14 +173,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,126 +499,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="5" width="6.44140625" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" customWidth="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" customWidth="1"/>
-    <col min="19" max="19" width="5.5546875" customWidth="1"/>
-    <col min="20" max="20" width="5.44140625" customWidth="1"/>
-    <col min="21" max="21" width="5.21875" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" customWidth="1"/>
-    <col min="23" max="23" width="7" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="71.109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.21875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F2" s="1">
+        <v>111</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="Q2" s="1">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1">
+        <v>9</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="T2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2025</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>余炳森5套-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余炳森5套-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数理统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数理统计那道题其实做过但是仍然不会，然后线代大题的解方程算错了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +157,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +183,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,7 +198,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -181,8 +206,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,10 +221,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -657,6 +689,68 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>141</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>135</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4">
+        <v>4</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>数理统计那道题其实做过但是仍然不会，然后线代大题的解方程算错了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余炳森5套-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯概念题+计算扣了10分，二级结论背错了扣了4分，曲线曲面又不会积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -679,7 +691,7 @@
       <c r="Q2" s="1">
         <v>5</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <v>9</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -749,6 +761,68 @@
       </c>
       <c r="T3" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>123</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="3">
+        <v>12</v>
+      </c>
+      <c r="P4" s="3">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>5</v>
+      </c>
+      <c r="R4" s="3">
+        <v>9</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>纯概念题+计算扣了10分，二级结论背错了扣了4分，曲线曲面又不会积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤家凤5套-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数理统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数理统计错10分，T13易错题5分，T19确实不会证明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -825,6 +837,68 @@
         <v>28</v>
       </c>
     </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>162</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4">
+        <v>8</v>
+      </c>
+      <c r="P5" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,42 @@
   </si>
   <si>
     <t>数理统计错10分，T13易错题5分，T19确实不会证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤家凤5套-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中值定理，曲面积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算失误5分，线代没代n扣2。中值定理那一题做了挺久还是不会，曲面又忘了奇点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤家凤5套-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤家凤5套-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二重积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算失误，把(√2/2)^3写成了√2/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分丢了21，又是算错又是不会，好好反省！这次是带病完成的，大概不会有更差的状态了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -555,34 +594,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="6.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="6.88671875" style="1" customWidth="1"/>
     <col min="17" max="17" width="6.77734375" style="1" customWidth="1"/>
     <col min="18" max="18" width="6.109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="19.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="71.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="88.77734375" style="1" customWidth="1"/>
     <col min="21" max="21" width="5.21875" style="1" customWidth="1"/>
     <col min="22" max="22" width="5.44140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="7" style="1" customWidth="1"/>
@@ -709,7 +747,7 @@
       <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -771,7 +809,7 @@
       <c r="S3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -833,7 +871,7 @@
       <c r="S4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -853,7 +891,7 @@
       <c r="E5" s="1">
         <v>3.15</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>162</v>
       </c>
       <c r="G5" s="1">
@@ -895,9 +933,246 @@
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="5" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>131</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>144</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>14</v>
+      </c>
+      <c r="P6" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>165</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>20</v>
+      </c>
+      <c r="O7" s="3">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>7</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>145</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>122</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,23 +162,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>二重积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算失误，把(√2/2)^3写成了√2/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分丢了21，又是算错又是不会，好好反省！这次是带病完成的，大概不会有更差的状态了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲面积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把题抄错了，思路与过程是对的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>汤家凤5套-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二重积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算失误，把(√2/2)^3写成了√2/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分丢了21，又是算错又是不会，好好反省！这次是带病完成的，大概不会有更差的状态了</t>
+    <t>汤家凤5套-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1055,15 +1067,15 @@
         <v>7</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>2024</v>
@@ -1117,14 +1129,73 @@
         <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T9" s="5"/>
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>146</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F9" s="4">
+        <v>104</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>4</v>
+      </c>
+      <c r="P9" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T10" s="5"/>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,42 @@
   </si>
   <si>
     <t>汤家凤5套-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李王武6套-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`中值定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中值定理的这种做法确实以前没遇到。T12定积分也没整出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李王武6套-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一元积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线积分换成二重的时候忘了椭圆只有一半。一元积分的证明题搞不出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间几何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T17本来是1到4的积分，不知道为什么写成1到3了，我都不知道3哪来的，发神经了。基础仍然有疏漏，T16的S2没看出来是ln，硬算了很久。T17旋转曲面不敢写y²+z²，以为自己记错了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1072,7 @@
       <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>17</v>
       </c>
       <c r="J7" s="3">
@@ -1198,13 +1234,190 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T10" s="5"/>
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>130</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>148</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10</v>
+      </c>
+      <c r="P10" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T11" s="5"/>
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>133</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F11" s="1">
+        <v>144</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5</v>
+      </c>
+      <c r="O11" s="3">
+        <v>12</v>
+      </c>
+      <c r="P11" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>146</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>142</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>4</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T13" s="5"/>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,14 @@
   </si>
   <si>
     <t>T17本来是1到4的积分，不知道为什么写成1到3了，我都不知道3哪来的，发神经了。基础仍然有疏漏，T16的S2没看出来是ln，硬算了很久。T17旋转曲面不敢写y²+z²，以为自己记错了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李王武6套-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一说一高数大题爆炸了，真的不会写。要继续努力了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1071,7 @@
       <c r="E7" s="1">
         <v>3.23</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>165</v>
       </c>
       <c r="G7" s="1">
@@ -1420,7 +1428,66 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T13" s="5"/>
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>118</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="F13" s="3">
+        <v>164</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>12</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>32</v>
+      </c>
+      <c r="P13" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T14" s="5"/>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,11 +230,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>有一说一高数大题爆炸了，真的不会写。要继续努力了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>李王武6套-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有一说一高数大题爆炸了，真的不会写。要继续努力了</t>
+    <t>李王武6套-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明明知道div不是grad还硬是当grad算，也是神人了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(X+Y)≠DX+DY，立即推复习到两点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -1030,7 +1054,7 @@
       <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>0</v>
       </c>
       <c r="N6" s="1">
@@ -1151,7 +1175,7 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="4">
@@ -1213,7 +1237,7 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>0</v>
       </c>
       <c r="M9" s="4">
@@ -1340,7 +1364,7 @@
       <c r="L11" s="1">
         <v>8</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="1">
@@ -1399,7 +1423,7 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="4">
@@ -1429,7 +1453,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1">
         <v>2024</v>
@@ -1486,14 +1510,132 @@
         <v>33</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T14" s="5"/>
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>143</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>150</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>5</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T15" s="5"/>
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>144</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>119</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>6</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>6</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T16" s="5"/>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>D(X+Y)≠DX+DY，立即推复习到两点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑瘫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实对称矩阵的特征向量还能求错，跳过程跳的，想扇自己一百巴掌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +689,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1388,7 @@
       <c r="P11" s="3">
         <v>15</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>0</v>
       </c>
       <c r="R11" s="1">
@@ -1638,7 +1650,66 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T16" s="5"/>
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>141</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="F16" s="1">
+        <v>113</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>9</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T17" s="5"/>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +269,26 @@
   </si>
   <si>
     <t>实对称矩阵的特征向量还能求错，跳过程跳的，想扇自己一百巴掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李王武6套-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终于150了，感谢张宇武忠祥李正元！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超越-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次做超越，感觉是计算量比较大，思考的话比平时的题目大概多一步。第五题被思维定式搞了（误以为α1,2,3线性无关了）。21题忘了k=0的情况。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +332,31 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -362,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +421,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -686,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -720,72 +772,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>2024</v>
       </c>
       <c r="C2" s="1">
@@ -830,7 +882,7 @@
       <c r="P2" s="2">
         <v>17</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="3">
         <v>5</v>
       </c>
       <c r="R2" s="3">
@@ -844,10 +896,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>2024</v>
       </c>
       <c r="C3" s="1">
@@ -895,7 +947,7 @@
       <c r="Q3" s="1">
         <v>4</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>5</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -906,10 +958,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>2024</v>
       </c>
       <c r="C4" s="1">
@@ -954,7 +1006,7 @@
       <c r="P4" s="3">
         <v>13</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="3">
         <v>5</v>
       </c>
       <c r="R4" s="3">
@@ -968,10 +1020,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>2024</v>
       </c>
       <c r="C5" s="1">
@@ -1030,10 +1082,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>2024</v>
       </c>
       <c r="C6" s="1">
@@ -1092,10 +1144,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>2024</v>
       </c>
       <c r="C7" s="1">
@@ -1154,10 +1206,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>2024</v>
       </c>
       <c r="C8" s="1">
@@ -1216,10 +1268,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>2024</v>
       </c>
       <c r="C9" s="1">
@@ -1278,10 +1330,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>2024</v>
       </c>
       <c r="C10" s="1">
@@ -1340,10 +1392,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>2024</v>
       </c>
       <c r="C11" s="1">
@@ -1402,10 +1454,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>2009</v>
       </c>
       <c r="C12" s="1">
@@ -1464,10 +1516,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>2024</v>
       </c>
       <c r="C13" s="1">
@@ -1526,10 +1578,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>2024</v>
       </c>
       <c r="C14" s="1">
@@ -1588,10 +1640,10 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>2010</v>
       </c>
       <c r="C15" s="1">
@@ -1650,10 +1702,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
         <v>2011</v>
       </c>
       <c r="C16" s="1">
@@ -1711,62 +1763,167 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>120</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>143</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>165</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>7</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
       <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,14 @@
   </si>
   <si>
     <t>第一次做超越，感觉是计算量比较大，思考的话比平时的题目大概多一步。第五题被思维定式搞了（误以为α1,2,3线性无关了）。21题忘了k=0的情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13差点没写出来，还是硬算的；T1差点写错；T21(1)做复杂了一点。本次检查无发现失误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,7 +749,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1862,19 +1870,19 @@
       <c r="M18" s="1">
         <v>5</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
         <v>2</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>7</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>0</v>
       </c>
       <c r="S18" s="1" t="s">
@@ -1885,9 +1893,63 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="T19" s="5"/>
+      <c r="A19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>150</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="F19" s="1">
+        <v>128</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>

--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`中值定理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中值定理的这种做法确实以前没遇到。T12定积分也没整出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +293,118 @@
   </si>
   <si>
     <t>T13差点没写出来，还是硬算的；T1差点写错；T21(1)做复杂了一点。本次检查无发现失误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无穷级数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象型无穷级数也要先说明收敛域，不然凭什么可以导？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李王武6套-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同相似，敛散性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方5套-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敛散性，形心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[速刷]敛散性还有待提高，曲面形心当成空间形心了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[速刷]本次为第一次速刷(为暴露做题中的问题，速刷只追求速度不允许回头检查)。T7不该错，如果仔细判别λ就能搞清楚。19敛散性忘了考虑必须有an=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T19双数列差点没证明出来，错了T22求EX代成F(x)进去了，T23切比雪夫忘了平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中值定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX,切比雪夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩，中值定理，极大似然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极有难度的一套卷子，没有一题送分，新题较多，计算量中等偏上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式，中值定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度比李擂1小一些，计算量更大一些，有少量创新题，T12积分把ln(x+sqrt(1+x²))和arcsinx的搞混了，T20出的还可以，T21解方程忘了k，T22忘了f(x)=0的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李擂8套-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇8套-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林6套-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元微分二阶偏导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李擂8套-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级数，中值定理，分布函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林的确实一点都不难。T2多元微分偏导错了，忘了应该fxy(0,0)=[fx(0,y)-fx(0.0)]还要÷y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张卷子比李擂1出得更巧妙，刷了部分900后做这个确实没有那么不顺手了，但是时间仍然很紧张没有时间去检查。T3级数敛散性失误，T19密度成正比忘了乘系数k，T22概率论那个行列式负号掉了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,9 +535,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,6 +544,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -746,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -771,8 +880,8 @@
     <col min="16" max="16" width="6.88671875" style="1" customWidth="1"/>
     <col min="17" max="17" width="6.77734375" style="1" customWidth="1"/>
     <col min="18" max="18" width="6.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="88.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="5.21875" style="1" customWidth="1"/>
     <col min="22" max="22" width="5.44140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="7" style="1" customWidth="1"/>
@@ -780,78 +889,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>2024</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>119</v>
       </c>
       <c r="E2" s="1">
@@ -878,7 +987,7 @@
       <c r="L2" s="1">
         <v>5</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <v>5</v>
       </c>
       <c r="N2" s="3">
@@ -899,15 +1008,15 @@
       <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2024</v>
       </c>
       <c r="C3" s="1">
@@ -943,10 +1052,10 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
-        <v>5</v>
-      </c>
-      <c r="O3" s="4">
+      <c r="N3" s="3">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
         <v>4</v>
       </c>
       <c r="P3" s="4">
@@ -961,21 +1070,21 @@
       <c r="S3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2024</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>123</v>
       </c>
       <c r="E4" s="1">
@@ -990,7 +1099,7 @@
       <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>5</v>
       </c>
       <c r="J4" s="3">
@@ -1005,7 +1114,7 @@
       <c r="M4" s="2">
         <v>10</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>5</v>
       </c>
       <c r="O4" s="3">
@@ -1023,21 +1132,21 @@
       <c r="S4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2024</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>122</v>
       </c>
       <c r="E5" s="1">
@@ -1052,7 +1161,7 @@
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>5</v>
       </c>
       <c r="J5" s="2">
@@ -1085,15 +1194,15 @@
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>2024</v>
       </c>
       <c r="C6" s="1">
@@ -1129,7 +1238,7 @@
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>5</v>
       </c>
       <c r="O6" s="3">
@@ -1147,15 +1256,15 @@
       <c r="S6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2024</v>
       </c>
       <c r="C7" s="1">
@@ -1173,7 +1282,7 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>2</v>
       </c>
       <c r="I7" s="2">
@@ -1188,7 +1297,7 @@
       <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <v>5</v>
       </c>
       <c r="N7" s="2">
@@ -1209,15 +1318,15 @@
       <c r="S7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2024</v>
       </c>
       <c r="C8" s="1">
@@ -1238,7 +1347,7 @@
       <c r="H8" s="1">
         <v>4</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>5</v>
       </c>
       <c r="J8" s="1">
@@ -1253,7 +1362,7 @@
       <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="3">
         <v>5</v>
       </c>
       <c r="O8" s="4">
@@ -1271,15 +1380,15 @@
       <c r="S8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2024</v>
       </c>
       <c r="C9" s="1">
@@ -1318,7 +1427,7 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="1">
         <v>4</v>
       </c>
       <c r="P9" s="4">
@@ -1333,15 +1442,15 @@
       <c r="S9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>2024</v>
       </c>
       <c r="C10" s="1">
@@ -1374,13 +1483,13 @@
       <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="M10" s="1">
-        <v>5</v>
-      </c>
-      <c r="N10" s="1">
-        <v>5</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="M10" s="3">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>10</v>
       </c>
       <c r="P10" s="2">
@@ -1393,17 +1502,17 @@
         <v>0</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2024</v>
       </c>
       <c r="C11" s="1">
@@ -1424,7 +1533,7 @@
       <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>5</v>
       </c>
       <c r="J11" s="1">
@@ -1439,7 +1548,7 @@
       <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="3">
         <v>5</v>
       </c>
       <c r="O11" s="3">
@@ -1455,17 +1564,17 @@
         <v>2</v>
       </c>
       <c r="S11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="T11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2009</v>
       </c>
       <c r="C12" s="1">
@@ -1517,17 +1626,17 @@
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T12" s="5" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="6">
         <v>2024</v>
       </c>
       <c r="C13" s="1">
@@ -1581,15 +1690,15 @@
       <c r="S13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="5" t="s">
-        <v>53</v>
+      <c r="T13" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="6">
         <v>2024</v>
       </c>
       <c r="C14" s="1">
@@ -1607,10 +1716,10 @@
       <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -1628,7 +1737,7 @@
       <c r="N14" s="4">
         <v>5</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="1">
         <v>2</v>
       </c>
       <c r="P14" s="1">
@@ -1641,17 +1750,17 @@
         <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>2010</v>
       </c>
       <c r="C15" s="1">
@@ -1690,7 +1799,7 @@
       <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="1">
         <v>6</v>
       </c>
       <c r="P15" s="4">
@@ -1703,17 +1812,17 @@
         <v>6</v>
       </c>
       <c r="S15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>2011</v>
       </c>
       <c r="C16" s="1">
@@ -1765,17 +1874,17 @@
         <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>2024</v>
       </c>
       <c r="C17" s="1">
@@ -1826,15 +1935,15 @@
       <c r="R17" s="4">
         <v>0</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>2023</v>
       </c>
       <c r="C18" s="1">
@@ -1843,7 +1952,7 @@
       <c r="D18" s="4">
         <v>143</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="8">
         <v>6.15</v>
       </c>
       <c r="F18" s="3">
@@ -1867,13 +1976,13 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="3">
         <v>5</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="1">
         <v>2</v>
       </c>
       <c r="P18" s="4">
@@ -1886,17 +1995,17 @@
         <v>0</v>
       </c>
       <c r="S18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="T18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>2012</v>
       </c>
       <c r="C19" s="1">
@@ -1905,7 +2014,7 @@
       <c r="D19" s="4">
         <v>150</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="8">
         <v>6.22</v>
       </c>
       <c r="F19" s="1">
@@ -1947,45 +2056,908 @@
       <c r="R19" s="4">
         <v>0</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="T20" s="5"/>
+      <c r="B20" s="6">
+        <v>2013</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>148</v>
+      </c>
+      <c r="E20" s="8">
+        <v>6.28</v>
+      </c>
+      <c r="F20" s="4">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="T21" s="5"/>
+      <c r="A21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>143</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4">
+        <v>62</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>5</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="T22" s="5"/>
+      <c r="A22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>140</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="4">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="T23" s="5"/>
+      <c r="A23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2014</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>144</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="1">
+        <v>141</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>6</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>5</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="T24" s="5"/>
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>110</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="F24" s="3">
+        <v>179</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>22</v>
+      </c>
+      <c r="K24" s="2">
+        <v>20</v>
+      </c>
+      <c r="L24" s="2">
+        <v>32</v>
+      </c>
+      <c r="M24" s="2">
+        <v>15</v>
+      </c>
+      <c r="N24" s="3">
+        <v>5</v>
+      </c>
+      <c r="O24" s="2">
+        <v>20</v>
+      </c>
+      <c r="P24" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>10</v>
+      </c>
+      <c r="R24" s="2">
+        <v>11</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="T25" s="5"/>
+      <c r="A25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>122</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="F25" s="3">
+        <v>175</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2">
+        <v>19</v>
+      </c>
+      <c r="K25" s="2">
+        <v>17</v>
+      </c>
+      <c r="L25" s="2">
+        <v>20</v>
+      </c>
+      <c r="M25" s="3">
+        <v>5</v>
+      </c>
+      <c r="N25" s="3">
+        <v>5</v>
+      </c>
+      <c r="O25" s="2">
+        <v>18</v>
+      </c>
+      <c r="P25" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>7</v>
+      </c>
+      <c r="R25" s="1">
+        <v>2</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>145</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="F26" s="1">
+        <v>139</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>119</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="F27" s="3">
+        <v>171</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7</v>
+      </c>
+      <c r="J27" s="2">
+        <v>11</v>
+      </c>
+      <c r="K27" s="2">
+        <v>12</v>
+      </c>
+      <c r="L27" s="2">
+        <v>34</v>
+      </c>
+      <c r="M27" s="2">
+        <v>10</v>
+      </c>
+      <c r="N27" s="3">
+        <v>5</v>
+      </c>
+      <c r="O27" s="2">
+        <v>16</v>
+      </c>
+      <c r="P27" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>5</v>
+      </c>
+      <c r="R27" s="2">
+        <v>6</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T28" s="9"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T35" s="9"/>
+    </row>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T36" s="9"/>
+    </row>
+    <row r="37" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T37" s="9"/>
+    </row>
+    <row r="38" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T38" s="9"/>
+    </row>
+    <row r="39" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T39" s="9"/>
+    </row>
+    <row r="40" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T40" s="9"/>
+    </row>
+    <row r="41" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T41" s="9"/>
+    </row>
+    <row r="42" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T42" s="9"/>
+    </row>
+    <row r="43" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T43" s="9"/>
+    </row>
+    <row r="44" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T44" s="9"/>
+    </row>
+    <row r="45" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T45" s="9"/>
+    </row>
+    <row r="46" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T46" s="9"/>
+    </row>
+    <row r="47" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T47" s="9"/>
+    </row>
+    <row r="48" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T48" s="9"/>
+    </row>
+    <row r="49" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T49" s="9"/>
+    </row>
+    <row r="50" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T50" s="9"/>
+    </row>
+    <row r="51" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T51" s="9"/>
+    </row>
+    <row r="52" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T52" s="9"/>
+    </row>
+    <row r="53" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T53" s="9"/>
+    </row>
+    <row r="54" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T54" s="9"/>
+    </row>
+    <row r="55" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T55" s="9"/>
+    </row>
+    <row r="56" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T56" s="9"/>
+    </row>
+    <row r="57" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T57" s="9"/>
+    </row>
+    <row r="58" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T58" s="9"/>
+    </row>
+    <row r="59" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T59" s="9"/>
+    </row>
+    <row r="60" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T60" s="9"/>
+    </row>
+    <row r="61" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T61" s="9"/>
+    </row>
+    <row r="62" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T62" s="9"/>
+    </row>
+    <row r="63" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T63" s="9"/>
+    </row>
+    <row r="64" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T64" s="9"/>
+    </row>
+    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T65" s="9"/>
+    </row>
+    <row r="66" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T66" s="9"/>
+    </row>
+    <row r="67" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T67" s="9"/>
+    </row>
+    <row r="68" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T68" s="9"/>
+    </row>
+    <row r="69" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T69" s="9"/>
+    </row>
+    <row r="70" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T70" s="9"/>
+    </row>
+    <row r="71" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T71" s="9"/>
+    </row>
+    <row r="72" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T72" s="9"/>
+    </row>
+    <row r="73" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T73" s="9"/>
+    </row>
+    <row r="74" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T74" s="9"/>
+    </row>
+    <row r="75" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T75" s="9"/>
+    </row>
+    <row r="76" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T76" s="9"/>
+    </row>
+    <row r="77" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T77" s="9"/>
+    </row>
+    <row r="78" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T78" s="9"/>
+    </row>
+    <row r="79" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T79" s="9"/>
+    </row>
+    <row r="80" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T80" s="9"/>
+    </row>
+    <row r="81" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T81" s="9"/>
+    </row>
+    <row r="82" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T82" s="9"/>
+    </row>
+    <row r="83" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T83" s="9"/>
+    </row>
+    <row r="84" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T84" s="9"/>
+    </row>
+    <row r="85" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T85" s="9"/>
+    </row>
+    <row r="86" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T86" s="9"/>
+    </row>
+    <row r="87" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T87" s="9"/>
+    </row>
+    <row r="88" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T88" s="9"/>
+    </row>
+    <row r="89" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T89" s="9"/>
+    </row>
+    <row r="90" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T90" s="9"/>
+    </row>
+    <row r="91" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T91" s="9"/>
+    </row>
+    <row r="92" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T92" s="9"/>
+    </row>
+    <row r="93" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T93" s="9"/>
+    </row>
+    <row r="94" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T94" s="9"/>
+    </row>
+    <row r="95" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T95" s="9"/>
+    </row>
+    <row r="96" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T96" s="9"/>
+    </row>
+    <row r="97" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T97" s="9"/>
+    </row>
+    <row r="98" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T98" s="9"/>
+    </row>
+    <row r="99" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T99" s="9"/>
+    </row>
+    <row r="100" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T100" s="9"/>
+    </row>
+    <row r="101" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T101" s="9"/>
+    </row>
+    <row r="102" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T102" s="9"/>
+    </row>
+    <row r="103" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T103" s="9"/>
+    </row>
+    <row r="104" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T104" s="9"/>
+    </row>
+    <row r="105" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T105" s="9"/>
+    </row>
+    <row r="106" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T106" s="9"/>
+    </row>
+    <row r="107" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T107" s="9"/>
+    </row>
+    <row r="108" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T108" s="9"/>
+    </row>
+    <row r="109" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T109" s="9"/>
+    </row>
+    <row r="110" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T110" s="9"/>
+    </row>
+    <row r="111" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T111" s="9"/>
+    </row>
+    <row r="112" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T112" s="9"/>
+    </row>
+    <row r="113" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T113" s="9"/>
+    </row>
+    <row r="114" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T114" s="9"/>
+    </row>
+    <row r="115" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T115" s="9"/>
+    </row>
+    <row r="116" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T116" s="9"/>
+    </row>
+    <row r="117" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T117" s="9"/>
+    </row>
+    <row r="118" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T118" s="9"/>
+    </row>
+    <row r="119" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T119" s="9"/>
+    </row>
+    <row r="120" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T120" s="9"/>
+    </row>
+    <row r="121" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T121" s="9"/>
+    </row>
+    <row r="122" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T122" s="9"/>
+    </row>
+    <row r="123" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T123" s="9"/>
+    </row>
+    <row r="124" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T124" s="9"/>
+    </row>
+    <row r="125" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T125" s="9"/>
+    </row>
+    <row r="126" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T126" s="9"/>
+    </row>
+    <row r="127" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T127" s="9"/>
+    </row>
+    <row r="128" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T128" s="9"/>
+    </row>
+    <row r="129" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T129" s="9"/>
+    </row>
+    <row r="130" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T130" s="9"/>
+    </row>
+    <row r="131" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T131" s="9"/>
+    </row>
+    <row r="132" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T132" s="9"/>
+    </row>
+    <row r="133" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T133" s="9"/>
+    </row>
+    <row r="134" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T134" s="9"/>
+    </row>
+    <row r="135" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T135" s="9"/>
+    </row>
+    <row r="136" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T136" s="9"/>
+    </row>
+    <row r="137" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T137" s="9"/>
+    </row>
+    <row r="138" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T138" s="9"/>
+    </row>
+    <row r="139" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T139" s="9"/>
+    </row>
+    <row r="140" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T140" s="9"/>
+    </row>
+    <row r="141" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T141" s="9"/>
+    </row>
+    <row r="142" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T142" s="9"/>
+    </row>
+    <row r="143" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T143" s="9"/>
+    </row>
+    <row r="144" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T144" s="9"/>
+    </row>
+    <row r="145" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T145" s="9"/>
+    </row>
+    <row r="146" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T146" s="9"/>
+    </row>
+    <row r="147" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T147" s="9"/>
+    </row>
+    <row r="148" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T148" s="9"/>
+    </row>
+    <row r="149" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T149" s="9"/>
+    </row>
+    <row r="150" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T150" s="9"/>
+    </row>
+    <row r="151" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T151" s="9"/>
+    </row>
+    <row r="152" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T152" s="9"/>
+    </row>
+    <row r="153" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T153" s="9"/>
+    </row>
+    <row r="154" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T154" s="9"/>
+    </row>
+    <row r="155" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T155" s="9"/>
+    </row>
+    <row r="156" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T156" s="9"/>
+    </row>
+    <row r="157" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T157" s="9"/>
+    </row>
+    <row r="158" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T158" s="9"/>
+    </row>
+    <row r="159" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T159" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E21:E22" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/数学试卷.xlsx
+++ b/data/数学试卷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,35 +212,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>空间几何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T17本来是1到4的积分，不知道为什么写成1到3了，我都不知道3哪来的，发神经了。基础仍然有疏漏，T16的S2没看出来是ln，硬算了很久。T17旋转曲面不敢写y²+z²，以为自己记错了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一说一高数大题爆炸了，真的不会写。要继续努力了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李王武6套-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李王武6套-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明明知道div不是grad还硬是当grad算，也是神人了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(X+Y)≠DX+DY，立即推复习到两点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑瘫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实对称矩阵的特征向量还能求错，跳过程跳的，想扇自己一百巴掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终于150了，感谢张宇武忠祥李正元！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超越-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次做超越，感觉是计算量比较大，思考的话比平时的题目大概多一步。第五题被思维定式搞了（误以为α1,2,3线性无关了）。21题忘了k=0的情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13差点没写出来，还是硬算的；T1差点写错；T21(1)做复杂了一点。本次检查无发现失误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无穷级数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象型无穷级数也要先说明收敛域，不然凭什么可以导？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李王武6套-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同相似，敛散性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方5套-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敛散性，形心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空间几何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T17本来是1到4的积分，不知道为什么写成1到3了，我都不知道3哪来的，发神经了。基础仍然有疏漏，T16的S2没看出来是ln，硬算了很久。T17旋转曲面不敢写y²+z²，以为自己记错了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一说一高数大题爆炸了，真的不会写。要继续努力了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李王武6套-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李王武6套-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明明知道div不是grad还硬是当grad算，也是神人了</t>
+    <t>7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[速刷]敛散性还有待提高，曲面形心当成空间形心了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[速刷]本次为第一次速刷(为暴露做题中的问题，速刷只追求速度不允许回头检查)。T7不该错，如果仔细判别λ就能搞清楚。19敛散性忘了考虑必须有an=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T19双数列差点没证明出来，错了T22求EX代成F(x)进去了，T23切比雪夫忘了平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中值定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX,切比雪夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩，中值定理，极大似然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式，中值定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度比李擂1小一些，计算量更大一些，有少量创新题，T12积分把ln(x+sqrt(1+x²))和arcsinx的搞混了，T20出的还可以，T21解方程忘了k，T22忘了f(x)=0的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇8套-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林6套-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元微分二阶偏导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李擂8套-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级数，中值定理，分布函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林的确实一点都不难。T2多元微分偏导错了，忘了应该fxy(0,0)=[fx(0,y)-fx(0.0)]还要÷y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张卷子比李擂1出得更巧妙，刷了部分900后做这个确实没有那么不顺手了，但是时间仍然很紧张没有时间去检查。T3级数敛散性失误，T19密度成正比忘了乘系数k，T22概率论那个行列式负号掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量空间，似然函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T20求出了基下的坐标忘了转成向量，T23似然函数忘了写为0的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋度公式差点忘了，然后求行列式又忘记了负号，跟李擂2概率论大题错的步骤一模一样。这个卷子感觉比之前的真题难多了，如果没练过，T16微分方程肯定会卡，T19级数估计做不出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧几里得-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲面积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18连续性证明不够严谨，T19曲面积分积错了。选填小难，T20,21比较创新，整体是个好卷子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极有难度且质量高的一套卷子，没有一题送分，新题较多，计算量中等偏上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有任何价值的卷子，比期末还简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元最值，逆矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T16没求边界（因为感觉太复杂了），事实证明管它难不难算，该写还是要写。T21逆矩阵只求了一个。卷子看起来很简单，但是计算量比较大而且还是有一定难度（小于2016但大于过往其他偶数年），偶数年毕竟是偶数年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李王武6套-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,11 +428,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D(X+Y)≠DX+DY，立即推复习到两点</t>
+    <t>李擂8套-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18数列极限第一问做复杂了，导致第二问证明写的不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶数年份里面算简单的了，T7其实不会写，但是猜猜估估其实大概还是能选出正确的那个选项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,151 +444,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>脑瘫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实对称矩阵的特征向量还能求错，跳过程跳的，想扇自己一百巴掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李王武6套-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终于150了，感谢张宇武忠祥李正元！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超越-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次做超越，感觉是计算量比较大，思考的话比平时的题目大概多一步。第五题被思维定式搞了（误以为α1,2,3线性无关了）。21题忘了k=0的情况。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T13差点没写出来，还是硬算的；T1差点写错；T21(1)做复杂了一点。本次检查无发现失误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无穷级数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽象型无穷级数也要先说明收敛域，不然凭什么可以导？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李王武6套-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同相似，敛散性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新东方5套-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敛散性，形心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[速刷]敛散性还有待提高，曲面形心当成空间形心了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[速刷]本次为第一次速刷(为暴露做题中的问题，速刷只追求速度不允许回头检查)。T7不该错，如果仔细判别λ就能搞清楚。19敛散性忘了考虑必须有an=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T19双数列差点没证明出来，错了T22求EX代成F(x)进去了，T23切比雪夫忘了平方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中值定理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX,切比雪夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秩，中值定理，极大似然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极有难度的一套卷子，没有一题送分，新题较多，计算量中等偏上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行列式，中值定理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度比李擂1小一些，计算量更大一些，有少量创新题，T12积分把ln(x+sqrt(1+x²))和arcsinx的搞混了，T20出的还可以，T21解方程忘了k，T22忘了f(x)=0的部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李擂8套-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宇8套-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李林6套-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多元微分二阶偏导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李擂8套-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>级数，中值定理，分布函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李林的确实一点都不难。T2多元微分偏导错了，忘了应该fxy(0,0)=[fx(0,y)-fx(0.0)]还要÷y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这张卷子比李擂1出得更巧妙，刷了部分900后做这个确实没有那么不顺手了，但是时间仍然很紧张没有时间去检查。T3级数敛散性失误，T19密度成正比忘了乘系数k，T22概率论那个行列式负号掉了</t>
+    <t>欧几里得-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填空题错前两个，难崩，一个漏了2一个多乘了2，分数直接爆炸；多元极值应该三角换元代换；中值定理应该是经典题，但是没做的很完美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中值定理，多元极值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数列极限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +528,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="方正大黑简体"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -521,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,6 +654,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -857,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -950,7 +1080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -960,7 +1090,7 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="10">
         <v>119</v>
       </c>
       <c r="E2" s="1">
@@ -990,29 +1120,29 @@
       <c r="M2" s="3">
         <v>5</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>10</v>
       </c>
       <c r="O2" s="2">
         <v>16</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="7">
         <v>17</v>
       </c>
-      <c r="Q2" s="3">
-        <v>5</v>
-      </c>
-      <c r="R2" s="3">
+      <c r="Q2" s="16">
+        <v>5</v>
+      </c>
+      <c r="R2" s="16">
         <v>9</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1152,7 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="11">
         <v>141</v>
       </c>
       <c r="E3" s="1">
@@ -1040,7 +1170,7 @@
       <c r="I3" s="1">
         <v>4</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>5</v>
       </c>
       <c r="K3" s="1">
@@ -1055,26 +1185,26 @@
       <c r="N3" s="3">
         <v>5</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>4</v>
       </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>4</v>
       </c>
-      <c r="R3" s="3">
-        <v>5</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="R3" s="16">
+        <v>5</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1214,7 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="12">
         <v>123</v>
       </c>
       <c r="E4" s="1">
@@ -1102,7 +1232,7 @@
       <c r="I4" s="3">
         <v>5</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>11</v>
       </c>
       <c r="K4" s="1">
@@ -1120,23 +1250,23 @@
       <c r="O4" s="3">
         <v>12</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="16">
         <v>13</v>
       </c>
-      <c r="Q4" s="3">
-        <v>5</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="Q4" s="16">
+        <v>5</v>
+      </c>
+      <c r="R4" s="16">
         <v>9</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -1146,7 +1276,7 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="12">
         <v>122</v>
       </c>
       <c r="E5" s="1">
@@ -1176,29 +1306,29 @@
       <c r="M5" s="2">
         <v>10</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>10</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>8</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="7">
         <v>18</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="Q5" s="15">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
         <v>10</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="14" t="s">
         <v>30</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1208,7 +1338,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="13">
         <v>131</v>
       </c>
       <c r="E6" s="1">
@@ -1226,7 +1356,7 @@
       <c r="I6" s="2">
         <v>13</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>6</v>
       </c>
       <c r="K6" s="1">
@@ -1244,23 +1374,23 @@
       <c r="O6" s="3">
         <v>14</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="7">
         <v>17</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="3">
         <v>2</v>
       </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -1270,7 +1400,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>112</v>
       </c>
       <c r="E7" s="1">
@@ -1288,7 +1418,7 @@
       <c r="I7" s="2">
         <v>17</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>11</v>
       </c>
       <c r="K7" s="1">
@@ -1306,23 +1436,23 @@
       <c r="O7" s="3">
         <v>13</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="7">
         <v>31</v>
       </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
+      <c r="Q7" s="15">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
         <v>7</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="14" t="s">
         <v>38</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
@@ -1332,7 +1462,7 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="11">
         <v>145</v>
       </c>
       <c r="E8" s="1">
@@ -1368,23 +1498,23 @@
       <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="P8" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0</v>
+      </c>
+      <c r="S8" s="14" t="s">
         <v>36</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
@@ -1394,7 +1524,7 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="11">
         <v>146</v>
       </c>
       <c r="E9" s="1">
@@ -1427,26 +1557,26 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="3">
         <v>4</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="15">
         <v>4</v>
       </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="Q9" s="15">
+        <v>0</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>40</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1456,7 +1586,7 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="13">
         <v>130</v>
       </c>
       <c r="E10" s="1">
@@ -1492,23 +1622,23 @@
       <c r="O10" s="3">
         <v>10</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="7">
         <v>20</v>
       </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>84</v>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1518,7 +1648,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="13">
         <v>133</v>
       </c>
       <c r="E11" s="1">
@@ -1554,25 +1684,25 @@
       <c r="O11" s="3">
         <v>12</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="16">
         <v>15</v>
       </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
+      <c r="Q11" s="15">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
         <v>2</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>49</v>
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B12" s="6">
         <v>2009</v>
@@ -1580,7 +1710,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="11">
         <v>146</v>
       </c>
       <c r="E12" s="1">
@@ -1616,25 +1746,25 @@
       <c r="O12" s="4">
         <v>4</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="15">
         <v>4</v>
       </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="Q12" s="15">
+        <v>0</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="T12" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6">
         <v>2024</v>
@@ -1642,7 +1772,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="12">
         <v>118</v>
       </c>
       <c r="E13" s="1">
@@ -1678,25 +1808,25 @@
       <c r="O13" s="2">
         <v>32</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="7">
         <v>32</v>
       </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="s">
+      <c r="Q13" s="15">
+        <v>0</v>
+      </c>
+      <c r="R13" s="15">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14" t="s">
         <v>33</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6">
         <v>2024</v>
@@ -1704,13 +1834,13 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="11">
         <v>143</v>
       </c>
       <c r="E14" s="1">
         <v>5.9</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>150</v>
       </c>
       <c r="G14" s="1">
@@ -1734,31 +1864,31 @@
       <c r="M14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="4">
-        <v>5</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="N14" s="3">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>2</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="3">
         <v>7</v>
       </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" t="s">
+      <c r="Q14" s="15">
+        <v>0</v>
+      </c>
+      <c r="R14" s="15">
+        <v>0</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>57</v>
+    </row>
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="B15" s="6">
         <v>2010</v>
@@ -1766,7 +1896,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="11">
         <v>144</v>
       </c>
       <c r="E15" s="1">
@@ -1799,28 +1929,28 @@
       <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="3">
         <v>6</v>
       </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="16">
         <v>6</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>58</v>
+      <c r="S15" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="B16" s="6">
         <v>2011</v>
@@ -1828,7 +1958,7 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="10">
         <v>141</v>
       </c>
       <c r="E16" s="1">
@@ -1864,25 +1994,25 @@
       <c r="O16" s="4">
         <v>0</v>
       </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
         <v>9</v>
       </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>61</v>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B17" s="6">
         <v>2024</v>
@@ -1890,7 +2020,7 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="11">
         <v>150</v>
       </c>
       <c r="E17" s="1">
@@ -1926,22 +2056,23 @@
       <c r="O17" s="4">
         <v>0</v>
       </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="S17" s="14"/>
       <c r="T17" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6">
         <v>2023</v>
@@ -1949,7 +2080,7 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="11">
         <v>143</v>
       </c>
       <c r="E18" s="8">
@@ -1982,28 +2113,28 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="3">
         <v>2</v>
       </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
         <v>7</v>
       </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>66</v>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B19" s="6">
         <v>2012</v>
@@ -2011,7 +2142,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="11">
         <v>150</v>
       </c>
       <c r="E19" s="8">
@@ -2047,22 +2178,23 @@
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14"/>
       <c r="T19" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B20" s="6">
         <v>2013</v>
@@ -2070,7 +2202,7 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="11">
         <v>148</v>
       </c>
       <c r="E20" s="8">
@@ -2103,28 +2235,28 @@
       <c r="N20" s="4">
         <v>0</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="3">
         <v>2</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="3">
         <v>2</v>
       </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>71</v>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B21" s="6">
         <v>2024</v>
@@ -2132,11 +2264,11 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="11">
         <v>143</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F21" s="4">
         <v>62</v>
@@ -2165,28 +2297,28 @@
       <c r="N21" s="4">
         <v>0</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="3">
         <v>2</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="3">
         <v>2</v>
       </c>
-      <c r="Q21" s="3">
-        <v>5</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>75</v>
+      <c r="Q21" s="16">
+        <v>5</v>
+      </c>
+      <c r="R21" s="15">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6">
         <v>2023</v>
@@ -2194,11 +2326,11 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="11">
         <v>140</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F22" s="4">
         <v>65</v>
@@ -2230,25 +2362,25 @@
       <c r="O22" s="4">
         <v>0</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <v>10</v>
       </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>78</v>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B23" s="6">
         <v>2014</v>
@@ -2256,11 +2388,11 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="11">
         <v>144</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1">
         <v>141</v>
@@ -2289,28 +2421,28 @@
       <c r="N23" s="4">
         <v>0</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="3">
         <v>6</v>
       </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>5</v>
-      </c>
-      <c r="R23" s="1">
+      <c r="P23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>1</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>85</v>
+      <c r="S23" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B24" s="6">
         <v>2025</v>
@@ -2318,7 +2450,7 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="10">
         <v>110</v>
       </c>
       <c r="E24" s="1">
@@ -2354,25 +2486,25 @@
       <c r="O24" s="2">
         <v>20</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="7">
         <v>19</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="7">
         <v>10</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="7">
         <v>11</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>86</v>
+      <c r="S24" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1">
         <v>2025</v>
@@ -2380,7 +2512,7 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="12">
         <v>122</v>
       </c>
       <c r="E25" s="1">
@@ -2416,25 +2548,25 @@
       <c r="O25" s="2">
         <v>18</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="7">
         <v>19</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="7">
         <v>7</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="3">
         <v>2</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>88</v>
+      <c r="S25" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1">
         <v>2025</v>
@@ -2442,7 +2574,7 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="11">
         <v>145</v>
       </c>
       <c r="E26" s="1">
@@ -2478,25 +2610,25 @@
       <c r="O26" s="4">
         <v>0</v>
       </c>
-      <c r="P26" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>93</v>
+      <c r="P26" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>0</v>
+      </c>
+      <c r="R26" s="15">
+        <v>0</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1">
         <v>2025</v>
@@ -2504,7 +2636,7 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="10">
         <v>119</v>
       </c>
       <c r="E27" s="1">
@@ -2540,416 +2672,1339 @@
       <c r="O27" s="2">
         <v>16</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="7">
         <v>18</v>
       </c>
-      <c r="Q27" s="1">
-        <v>5</v>
-      </c>
-      <c r="R27" s="2">
+      <c r="Q27" s="3">
+        <v>5</v>
+      </c>
+      <c r="R27" s="7">
         <v>6</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>147</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>3</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>2</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
+        <v>145</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F29" s="3">
+        <v>155</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>5</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0</v>
+      </c>
+      <c r="R29" s="15">
+        <v>0</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>140</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F30" s="3">
+        <v>155</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>10</v>
+      </c>
+      <c r="P30" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="T27" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T28" s="9"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T29" s="9"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T30" s="9"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T31" s="9"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T32" s="9"/>
-    </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T33" s="9"/>
-    </row>
-    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T34" s="9"/>
-    </row>
-    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T35" s="9"/>
-    </row>
-    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T30" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>150</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8.14</v>
+      </c>
+      <c r="F31" s="1">
+        <v>81</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="14"/>
+      <c r="T31" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
+        <v>141</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="F32" s="3">
+        <v>154</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>9</v>
+      </c>
+      <c r="P32" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>6</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>121</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="F33" s="1">
+        <v>141</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>5</v>
+      </c>
+      <c r="N33" s="2">
+        <v>10</v>
+      </c>
+      <c r="O33" s="2">
+        <v>14</v>
+      </c>
+      <c r="P33" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
+        <v>2</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11">
+        <v>148</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F34" s="1">
+        <v>126</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>2</v>
+      </c>
+      <c r="P34" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
+        <v>150</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="F35" s="1">
+        <v>140</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="14"/>
+      <c r="T35" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D36" s="13"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="14"/>
       <c r="T36" s="9"/>
     </row>
-    <row r="37" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D37" s="13"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="14"/>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T38" s="9"/>
-    </row>
-    <row r="39" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T39" s="9"/>
-    </row>
-    <row r="40" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S39" s="14"/>
+    </row>
+    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D40" s="13"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="14"/>
       <c r="T40" s="9"/>
     </row>
-    <row r="41" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D41" s="13"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="14"/>
       <c r="T41" s="9"/>
     </row>
-    <row r="42" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D42" s="13"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="14"/>
       <c r="T42" s="9"/>
     </row>
-    <row r="43" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D43" s="13"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="14"/>
       <c r="T43" s="9"/>
     </row>
-    <row r="44" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D44" s="13"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="14"/>
       <c r="T44" s="9"/>
     </row>
-    <row r="45" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D45" s="13"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="14"/>
       <c r="T45" s="9"/>
     </row>
-    <row r="46" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D46" s="13"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="14"/>
       <c r="T46" s="9"/>
     </row>
-    <row r="47" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D47" s="13"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="14"/>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D48" s="13"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="14"/>
       <c r="T48" s="9"/>
     </row>
-    <row r="49" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D49" s="13"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="14"/>
       <c r="T49" s="9"/>
     </row>
-    <row r="50" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D50" s="13"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="14"/>
       <c r="T50" s="9"/>
     </row>
-    <row r="51" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D51" s="13"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="14"/>
       <c r="T51" s="9"/>
     </row>
-    <row r="52" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D52" s="13"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="14"/>
       <c r="T52" s="9"/>
     </row>
-    <row r="53" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D53" s="13"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="14"/>
       <c r="T53" s="9"/>
     </row>
-    <row r="54" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D54" s="13"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="14"/>
       <c r="T54" s="9"/>
     </row>
-    <row r="55" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D55" s="13"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="14"/>
       <c r="T55" s="9"/>
     </row>
-    <row r="56" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D56" s="13"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="14"/>
       <c r="T56" s="9"/>
     </row>
-    <row r="57" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D57" s="13"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="14"/>
       <c r="T57" s="9"/>
     </row>
-    <row r="58" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D58" s="13"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="14"/>
       <c r="T58" s="9"/>
     </row>
-    <row r="59" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D59" s="13"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="14"/>
       <c r="T59" s="9"/>
     </row>
-    <row r="60" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D60" s="13"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="14"/>
       <c r="T60" s="9"/>
     </row>
-    <row r="61" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D61" s="13"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="14"/>
       <c r="T61" s="9"/>
     </row>
-    <row r="62" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D62" s="13"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="14"/>
       <c r="T62" s="9"/>
     </row>
-    <row r="63" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D63" s="13"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="14"/>
       <c r="T63" s="9"/>
     </row>
-    <row r="64" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D64" s="13"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="14"/>
       <c r="T64" s="9"/>
     </row>
-    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D65" s="13"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="14"/>
       <c r="T65" s="9"/>
     </row>
-    <row r="66" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D66" s="13"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="14"/>
       <c r="T66" s="9"/>
     </row>
-    <row r="67" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D67" s="13"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="14"/>
       <c r="T67" s="9"/>
     </row>
-    <row r="68" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D68" s="13"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="14"/>
       <c r="T68" s="9"/>
     </row>
-    <row r="69" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D69" s="13"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
       <c r="T69" s="9"/>
     </row>
-    <row r="70" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D70" s="13"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
       <c r="T70" s="9"/>
     </row>
-    <row r="71" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D71" s="13"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
       <c r="T71" s="9"/>
     </row>
-    <row r="72" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D72" s="13"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
       <c r="T72" s="9"/>
     </row>
-    <row r="73" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D73" s="13"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
       <c r="T73" s="9"/>
     </row>
-    <row r="74" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D74" s="13"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
       <c r="T74" s="9"/>
     </row>
-    <row r="75" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D75" s="13"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
       <c r="T75" s="9"/>
     </row>
-    <row r="76" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D76" s="13"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
       <c r="T76" s="9"/>
     </row>
-    <row r="77" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D77" s="13"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
       <c r="T77" s="9"/>
     </row>
-    <row r="78" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D78" s="13"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
       <c r="T78" s="9"/>
     </row>
-    <row r="79" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D79" s="13"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
       <c r="T79" s="9"/>
     </row>
-    <row r="80" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D80" s="13"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
       <c r="T80" s="9"/>
     </row>
-    <row r="81" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D81" s="13"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
       <c r="T81" s="9"/>
     </row>
-    <row r="82" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D82" s="13"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
       <c r="T82" s="9"/>
     </row>
-    <row r="83" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D83" s="13"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
       <c r="T83" s="9"/>
     </row>
-    <row r="84" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D84" s="13"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
       <c r="T84" s="9"/>
     </row>
-    <row r="85" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D85" s="13"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
       <c r="T85" s="9"/>
     </row>
-    <row r="86" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D86" s="13"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
       <c r="T86" s="9"/>
     </row>
-    <row r="87" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D87" s="13"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
       <c r="T87" s="9"/>
     </row>
-    <row r="88" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D88" s="13"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
       <c r="T88" s="9"/>
     </row>
-    <row r="89" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D89" s="13"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
       <c r="T89" s="9"/>
     </row>
-    <row r="90" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D90" s="13"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
       <c r="T90" s="9"/>
     </row>
-    <row r="91" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D91" s="13"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
       <c r="T91" s="9"/>
     </row>
-    <row r="92" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D92" s="13"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
       <c r="T92" s="9"/>
     </row>
-    <row r="93" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D93" s="13"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
       <c r="T93" s="9"/>
     </row>
-    <row r="94" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D94" s="13"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
       <c r="T94" s="9"/>
     </row>
-    <row r="95" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D95" s="13"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
       <c r="T95" s="9"/>
     </row>
-    <row r="96" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D96" s="13"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
       <c r="T96" s="9"/>
     </row>
-    <row r="97" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D97" s="13"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
       <c r="T97" s="9"/>
     </row>
-    <row r="98" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D98" s="13"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
       <c r="T98" s="9"/>
     </row>
-    <row r="99" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D99" s="13"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
       <c r="T99" s="9"/>
     </row>
-    <row r="100" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D100" s="13"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
       <c r="T100" s="9"/>
     </row>
-    <row r="101" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D101" s="13"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
       <c r="T101" s="9"/>
     </row>
-    <row r="102" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D102" s="13"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
       <c r="T102" s="9"/>
     </row>
-    <row r="103" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D103" s="13"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
       <c r="T103" s="9"/>
     </row>
-    <row r="104" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D104" s="13"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
       <c r="T104" s="9"/>
     </row>
-    <row r="105" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D105" s="13"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
       <c r="T105" s="9"/>
     </row>
-    <row r="106" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D106" s="13"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
       <c r="T106" s="9"/>
     </row>
-    <row r="107" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D107" s="13"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
       <c r="T107" s="9"/>
     </row>
-    <row r="108" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D108" s="13"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
       <c r="T108" s="9"/>
     </row>
-    <row r="109" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D109" s="13"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
       <c r="T109" s="9"/>
     </row>
-    <row r="110" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D110" s="13"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
       <c r="T110" s="9"/>
     </row>
-    <row r="111" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D111" s="13"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
       <c r="T111" s="9"/>
     </row>
-    <row r="112" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D112" s="13"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
       <c r="T112" s="9"/>
     </row>
-    <row r="113" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D113" s="13"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
       <c r="T113" s="9"/>
     </row>
-    <row r="114" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D114" s="13"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
       <c r="T114" s="9"/>
     </row>
-    <row r="115" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D115" s="13"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
       <c r="T115" s="9"/>
     </row>
-    <row r="116" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D116" s="13"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
       <c r="T116" s="9"/>
     </row>
-    <row r="117" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D117" s="13"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
       <c r="T117" s="9"/>
     </row>
-    <row r="118" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D118" s="13"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
       <c r="T118" s="9"/>
     </row>
-    <row r="119" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D119" s="13"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
       <c r="T119" s="9"/>
     </row>
-    <row r="120" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D120" s="13"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
       <c r="T120" s="9"/>
     </row>
-    <row r="121" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D121" s="13"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
       <c r="T121" s="9"/>
     </row>
-    <row r="122" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D122" s="13"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
       <c r="T122" s="9"/>
     </row>
-    <row r="123" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D123" s="13"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
       <c r="T123" s="9"/>
     </row>
-    <row r="124" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D124" s="13"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
       <c r="T124" s="9"/>
     </row>
-    <row r="125" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D125" s="13"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
       <c r="T125" s="9"/>
     </row>
-    <row r="126" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D126" s="13"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="6"/>
       <c r="T126" s="9"/>
     </row>
-    <row r="127" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D127" s="13"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6"/>
       <c r="T127" s="9"/>
     </row>
-    <row r="128" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D128" s="13"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
       <c r="T128" s="9"/>
     </row>
-    <row r="129" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D129" s="13"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
       <c r="T129" s="9"/>
     </row>
-    <row r="130" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D130" s="13"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
       <c r="T130" s="9"/>
     </row>
-    <row r="131" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D131" s="13"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
       <c r="T131" s="9"/>
     </row>
-    <row r="132" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D132" s="13"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
       <c r="T132" s="9"/>
     </row>
-    <row r="133" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D133" s="13"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
       <c r="T133" s="9"/>
     </row>
-    <row r="134" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D134" s="13"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
       <c r="T134" s="9"/>
     </row>
-    <row r="135" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D135" s="13"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
       <c r="T135" s="9"/>
     </row>
-    <row r="136" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D136" s="13"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6"/>
       <c r="T136" s="9"/>
     </row>
-    <row r="137" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D137" s="13"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
       <c r="T137" s="9"/>
     </row>
-    <row r="138" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D138" s="13"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
       <c r="T138" s="9"/>
     </row>
-    <row r="139" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D139" s="13"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
       <c r="T139" s="9"/>
     </row>
-    <row r="140" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D140" s="13"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
       <c r="T140" s="9"/>
     </row>
-    <row r="141" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D141" s="13"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
       <c r="T141" s="9"/>
     </row>
-    <row r="142" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D142" s="13"/>
       <c r="T142" s="9"/>
     </row>
-    <row r="143" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D143" s="13"/>
       <c r="T143" s="9"/>
     </row>
-    <row r="144" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D144" s="13"/>
       <c r="T144" s="9"/>
     </row>
-    <row r="145" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D145" s="13"/>
       <c r="T145" s="9"/>
     </row>
-    <row r="146" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D146" s="13"/>
       <c r="T146" s="9"/>
     </row>
-    <row r="147" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D147" s="13"/>
       <c r="T147" s="9"/>
     </row>
-    <row r="148" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D148" s="13"/>
       <c r="T148" s="9"/>
     </row>
-    <row r="149" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="D149" s="13"/>
       <c r="T149" s="9"/>
     </row>
-    <row r="150" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:20" x14ac:dyDescent="0.25">
       <c r="T150" s="9"/>
     </row>
-    <row r="151" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:20" x14ac:dyDescent="0.25">
       <c r="T151" s="9"/>
     </row>
-    <row r="152" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:20" x14ac:dyDescent="0.25">
       <c r="T152" s="9"/>
     </row>
-    <row r="153" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:20" x14ac:dyDescent="0.25">
       <c r="T153" s="9"/>
     </row>
-    <row r="154" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:20" x14ac:dyDescent="0.25">
       <c r="T154" s="9"/>
     </row>
-    <row r="155" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:20" x14ac:dyDescent="0.25">
       <c r="T155" s="9"/>
     </row>
-    <row r="156" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:20" x14ac:dyDescent="0.25">
       <c r="T156" s="9"/>
     </row>
-    <row r="157" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:20" x14ac:dyDescent="0.25">
       <c r="T157" s="9"/>
     </row>
-    <row r="158" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:20" x14ac:dyDescent="0.25">
       <c r="T158" s="9"/>
     </row>
-    <row r="159" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:20" x14ac:dyDescent="0.25">
       <c r="T159" s="9"/>
     </row>
   </sheetData>
